--- a/Resources/1997/Advanced_Percentile_1997.xlsx
+++ b/Resources/1997/Advanced_Percentile_1997.xlsx
@@ -1378,34 +1378,34 @@
     <t>thompla01</t>
   </si>
   <si>
-    <t>Karl Malone*</t>
-  </si>
-  <si>
-    <t>Michael Jordan*</t>
-  </si>
-  <si>
-    <t>Reggie Miller*</t>
-  </si>
-  <si>
-    <t>Grant Hill*</t>
+    <t>Karl Malone</t>
+  </si>
+  <si>
+    <t>Michael Jordan</t>
+  </si>
+  <si>
+    <t>Reggie Miller</t>
+  </si>
+  <si>
+    <t>Grant Hill</t>
   </si>
   <si>
     <t>Kevin Johnson</t>
   </si>
   <si>
-    <t>Shaquille O'Neal*</t>
-  </si>
-  <si>
-    <t>Mitch Richmond*</t>
-  </si>
-  <si>
-    <t>Charles Barkley*</t>
-  </si>
-  <si>
-    <t>Arvydas Sabonis*</t>
-  </si>
-  <si>
-    <t>Alonzo Mourning*</t>
+    <t>Shaquille O'Neal</t>
+  </si>
+  <si>
+    <t>Mitch Richmond</t>
+  </si>
+  <si>
+    <t>Charles Barkley</t>
+  </si>
+  <si>
+    <t>Arvydas Sabonis</t>
+  </si>
+  <si>
+    <t>Alonzo Mourning</t>
   </si>
   <si>
     <t>Glen Rice</t>
@@ -1414,13 +1414,13 @@
     <t>Shawn Kemp</t>
   </si>
   <si>
-    <t>Hakeem Olajuwon*</t>
-  </si>
-  <si>
-    <t>Gary Payton*</t>
-  </si>
-  <si>
-    <t>Scottie Pippen*</t>
+    <t>Hakeem Olajuwon</t>
+  </si>
+  <si>
+    <t>Gary Payton</t>
+  </si>
+  <si>
+    <t>Scottie Pippen</t>
   </si>
   <si>
     <t>Anfernee Hardaway</t>
@@ -1429,7 +1429,7 @@
     <t>Chris Webber</t>
   </si>
   <si>
-    <t>Patrick Ewing*</t>
+    <t>Patrick Ewing</t>
   </si>
   <si>
     <t>Tim Hardaway</t>
@@ -1441,16 +1441,16 @@
     <t>Latrell Sprewell</t>
   </si>
   <si>
-    <t>John Stockton*</t>
-  </si>
-  <si>
-    <t>David Robinson*</t>
+    <t>John Stockton</t>
+  </si>
+  <si>
+    <t>David Robinson</t>
   </si>
   <si>
     <t>Mookie Blaylock</t>
   </si>
   <si>
-    <t>Clyde Drexler*</t>
+    <t>Clyde Drexler</t>
   </si>
   <si>
     <t>Terrell Brandon</t>
@@ -1504,7 +1504,7 @@
     <t>Eric Piatkowski</t>
   </si>
   <si>
-    <t>Dikembe Mutombo*</t>
+    <t>Dikembe Mutombo</t>
   </si>
   <si>
     <t>Tyrone Hill</t>
@@ -1525,7 +1525,7 @@
     <t>Tom Gugliotta</t>
   </si>
   <si>
-    <t>Chris Mullin*</t>
+    <t>Chris Mullin</t>
   </si>
   <si>
     <t>Chris Gatling</t>
@@ -1534,7 +1534,7 @@
     <t>Voshon Lenard</t>
   </si>
   <si>
-    <t>Joe Dumars*</t>
+    <t>Joe Dumars</t>
   </si>
   <si>
     <t>Gary Trent</t>
@@ -1627,7 +1627,7 @@
     <t>Doug Christie</t>
   </si>
   <si>
-    <t>Dominique Wilkins*</t>
+    <t>Dominique Wilkins</t>
   </si>
   <si>
     <t>Eric Murdock</t>
@@ -1645,7 +1645,7 @@
     <t>Rex Chapman</t>
   </si>
   <si>
-    <t>Allen Iverson*</t>
+    <t>Allen Iverson</t>
   </si>
   <si>
     <t>Bryon Russell</t>
@@ -1660,7 +1660,7 @@
     <t>Chris Whitney</t>
   </si>
   <si>
-    <t>Ray Allen*</t>
+    <t>Ray Allen</t>
   </si>
   <si>
     <t>Chris Mills</t>
@@ -1792,7 +1792,7 @@
     <t>Lindsey Hunter</t>
   </si>
   <si>
-    <t>Jason Kidd*</t>
+    <t>Jason Kidd</t>
   </si>
   <si>
     <t>Alan Henderson</t>
@@ -1921,7 +1921,7 @@
     <t>Sasha Danilovic</t>
   </si>
   <si>
-    <t>Robert Parish*</t>
+    <t>Robert Parish</t>
   </si>
   <si>
     <t>Antoine Walker</t>
@@ -1981,7 +1981,7 @@
     <t>Brian Grant</t>
   </si>
   <si>
-    <t>Dennis Rodman*</t>
+    <t>Dennis Rodman</t>
   </si>
   <si>
     <t>Cherokee Parks</t>
@@ -2269,7 +2269,7 @@
     <t>Erick Dampier</t>
   </si>
   <si>
-    <t>Steve Nash*</t>
+    <t>Steve Nash</t>
   </si>
   <si>
     <t>David Wingate</t>
@@ -2326,7 +2326,7 @@
     <t>George Zidek</t>
   </si>
   <si>
-    <t>Sarunas Marciulionis*</t>
+    <t>Sarunas Marciulionis</t>
   </si>
   <si>
     <t>Gary Grant</t>
@@ -2338,7 +2338,7 @@
     <t>Donny Marshall</t>
   </si>
   <si>
-    <t>Dino Radja*</t>
+    <t>Dino Radja</t>
   </si>
   <si>
     <t>Jamie Watson</t>
